--- a/data/trans_dic/Q17F_D_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,52; 29,68</t>
+          <t>7,98; 30,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 22,25</t>
+          <t>5,8; 22,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 22,27</t>
+          <t>5,97; 21,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 25,89</t>
+          <t>8,06; 26,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,92; 30,22</t>
+          <t>12,62; 29,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,63; 33,58</t>
+          <t>18,01; 33,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,94; 24,01</t>
+          <t>10,35; 24,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,67; 23,53</t>
+          <t>11,86; 22,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 26,06</t>
+          <t>14,41; 25,63</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,83; 37,7</t>
+          <t>16,73; 37,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 23,97</t>
+          <t>6,63; 23,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 20,95</t>
+          <t>7,13; 21,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,89; 50,65</t>
+          <t>26,23; 50,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,48; 31,72</t>
+          <t>16,7; 31,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 18,95</t>
+          <t>6,76; 18,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 22,17</t>
+          <t>11,26; 22,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,66; 49,18</t>
+          <t>31,94; 50,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 31,62</t>
+          <t>19,04; 30,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 18,64</t>
+          <t>8,62; 18,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,42</t>
+          <t>10,59; 19,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,02; 47,79</t>
+          <t>32,0; 46,93</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 19,79</t>
+          <t>2,05; 20,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,74; 22,02</t>
+          <t>6,12; 22,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 14,56</t>
+          <t>3,49; 13,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 36,59</t>
+          <t>15,46; 35,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 12,9</t>
+          <t>2,87; 13,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 15,03</t>
+          <t>5,53; 15,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 17,68</t>
+          <t>5,69; 17,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,14; 31,03</t>
+          <t>14,33; 29,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 11,79</t>
+          <t>3,88; 13,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 15,74</t>
+          <t>7,05; 15,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 14,36</t>
+          <t>5,39; 14,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,85; 29,65</t>
+          <t>17,03; 29,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 34,35</t>
+          <t>11,33; 33,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 26,01</t>
+          <t>11,2; 24,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,07; 30,83</t>
+          <t>12,45; 30,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,13; 66,12</t>
+          <t>37,83; 65,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 8,25</t>
+          <t>1,55; 9,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 16,68</t>
+          <t>7,46; 16,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,18; 31,5</t>
+          <t>15,72; 31,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,23; 49,39</t>
+          <t>25,77; 50,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 13,79</t>
+          <t>5,53; 14,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,21; 17,91</t>
+          <t>10,09; 17,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,9; 28,41</t>
+          <t>16,62; 28,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,51; 52,53</t>
+          <t>32,63; 52,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,31; 26,84</t>
+          <t>6,55; 29,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 20,93</t>
+          <t>2,08; 19,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 33,71</t>
+          <t>2,99; 33,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 52,54</t>
+          <t>18,05; 53,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,97; 34,12</t>
+          <t>12,02; 34,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 28,38</t>
+          <t>12,25; 28,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 22,44</t>
+          <t>4,18; 24,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,58; 49,04</t>
+          <t>24,58; 49,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,61; 28,17</t>
+          <t>12,2; 29,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,02; 22,21</t>
+          <t>9,93; 22,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,5; 21,87</t>
+          <t>6,31; 23,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,03; 46,44</t>
+          <t>25,97; 46,08</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,51</t>
+          <t>0,0; 15,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,0; 25,99</t>
+          <t>8,13; 24,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 17,76</t>
+          <t>5,11; 16,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,71; 20,75</t>
+          <t>6,67; 20,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,37; 21,66</t>
+          <t>6,47; 20,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 20,17</t>
+          <t>6,56; 19,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,27; 19,26</t>
+          <t>6,73; 18,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,25; 24,73</t>
+          <t>8,97; 25,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,52; 15,59</t>
+          <t>4,96; 16,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,84; 18,98</t>
+          <t>8,88; 18,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,38; 15,67</t>
+          <t>7,01; 15,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,77; 20,44</t>
+          <t>9,72; 20,05</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,55; 24,53</t>
+          <t>11,35; 24,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,78; 23,18</t>
+          <t>11,52; 23,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,6; 29,18</t>
+          <t>14,54; 28,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>33,54; 52,87</t>
+          <t>33,38; 52,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,44; 19,86</t>
+          <t>9,57; 19,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,25; 24,1</t>
+          <t>13,09; 23,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,31; 26,52</t>
+          <t>14,76; 27,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,37; 49,38</t>
+          <t>36,35; 49,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,74; 19,03</t>
+          <t>11,54; 19,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,99; 21,81</t>
+          <t>13,65; 21,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,21; 25,69</t>
+          <t>16,19; 25,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>37,17; 48,25</t>
+          <t>37,77; 48,52</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,91; 23,24</t>
+          <t>10,94; 22,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,84; 20,53</t>
+          <t>7,58; 20,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,56; 13,47</t>
+          <t>5,37; 13,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,78; 40,67</t>
+          <t>25,66; 40,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,14; 22,99</t>
+          <t>12,39; 22,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,37; 19,36</t>
+          <t>9,18; 18,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,03; 19,63</t>
+          <t>9,6; 19,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>40,45; 53,3</t>
+          <t>40,25; 53,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,04; 21,02</t>
+          <t>13,22; 21,21</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,89; 17,52</t>
+          <t>9,88; 17,55</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,06; 15,5</t>
+          <t>9,0; 15,29</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>36,58; 46,87</t>
+          <t>36,78; 46,53</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,94</t>
+          <t>13,79; 19,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,05; 17,61</t>
+          <t>11,92; 17,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,77; 15,73</t>
+          <t>10,62; 15,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>29,04; 36,85</t>
+          <t>29,77; 37,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,02</t>
+          <t>12,47; 17,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,65; 15,68</t>
+          <t>11,82; 15,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,19; 18,8</t>
+          <t>14,01; 18,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>34,67; 41,07</t>
+          <t>34,5; 40,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,76; 17,49</t>
+          <t>13,7; 17,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>12,44; 15,9</t>
+          <t>12,58; 15,8</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>13,27; 16,59</t>
+          <t>13,27; 16,62</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>33,38; 38,49</t>
+          <t>33,33; 38,42</t>
         </is>
       </c>
     </row>
